--- a/Tablets Distribution - Mokhotlong.xlsx
+++ b/Tablets Distribution - Mokhotlong.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="All Tablets" sheetId="1" r:id="rId1"/>
@@ -12,20 +12,576 @@
     <sheet name="Senqu" sheetId="3" r:id="rId3"/>
     <sheet name="Mokhotlong" sheetId="4" r:id="rId4"/>
     <sheet name="Bobatsi" sheetId="5" r:id="rId5"/>
+    <sheet name="Supervisors" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="179">
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Serial #</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>X-TOUCH P1</t>
+  </si>
+  <si>
+    <t>11V1DP10</t>
+  </si>
+  <si>
+    <t>CLICK 7" M7043G</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG27072015</t>
+  </si>
+  <si>
+    <t>Lenovo Tab 2 A7-30</t>
+  </si>
+  <si>
+    <t>HA0J</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>1945</t>
+  </si>
+  <si>
+    <t>1678</t>
+  </si>
+  <si>
+    <t>3273</t>
+  </si>
+  <si>
+    <t>1942</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>1949</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>3514</t>
+  </si>
+  <si>
+    <t>1948</t>
+  </si>
+  <si>
+    <t>3276</t>
+  </si>
+  <si>
+    <t>2088</t>
+  </si>
+  <si>
+    <t>1672</t>
+  </si>
+  <si>
+    <t>2534</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>2091</t>
+  </si>
+  <si>
+    <t>1662</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2096</t>
+  </si>
+  <si>
+    <t>2087</t>
+  </si>
+  <si>
+    <t>1674</t>
+  </si>
+  <si>
+    <t>2780</t>
+  </si>
+  <si>
+    <t>4455</t>
+  </si>
+  <si>
+    <t>2764</t>
+  </si>
+  <si>
+    <t>1921</t>
+  </si>
+  <si>
+    <t>4445</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>2097</t>
+  </si>
+  <si>
+    <t>1922</t>
+  </si>
+  <si>
+    <t>4451</t>
+  </si>
+  <si>
+    <t>1669</t>
+  </si>
+  <si>
+    <t>2763</t>
+  </si>
+  <si>
+    <t>2249</t>
+  </si>
+  <si>
+    <t>2176</t>
+  </si>
+  <si>
+    <t>1941</t>
+  </si>
+  <si>
+    <t>1679</t>
+  </si>
+  <si>
+    <t>2259</t>
+  </si>
+  <si>
+    <t>2083</t>
+  </si>
+  <si>
+    <t>1946</t>
+  </si>
+  <si>
+    <t>4272</t>
+  </si>
+  <si>
+    <t>1899</t>
+  </si>
+  <si>
+    <t>3853</t>
+  </si>
+  <si>
+    <t>1862</t>
+  </si>
+  <si>
+    <t>2343</t>
+  </si>
+  <si>
+    <t>3462</t>
+  </si>
+  <si>
+    <t>4265</t>
+  </si>
+  <si>
+    <t>3848</t>
+  </si>
+  <si>
+    <t>1867</t>
+  </si>
+  <si>
+    <t>1861</t>
+  </si>
+  <si>
+    <t>2358</t>
+  </si>
+  <si>
+    <t>4267</t>
+  </si>
+  <si>
+    <t>4262</t>
+  </si>
+  <si>
+    <t>1863</t>
+  </si>
+  <si>
+    <t>4274</t>
+  </si>
+  <si>
+    <t>2672</t>
+  </si>
+  <si>
+    <t>2774</t>
+  </si>
+  <si>
+    <t>1887</t>
+  </si>
+  <si>
+    <t>3265</t>
+  </si>
+  <si>
+    <t>3262</t>
+  </si>
+  <si>
+    <t>2356</t>
+  </si>
+  <si>
+    <t>1898</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2260</t>
+  </si>
+  <si>
+    <t>1880</t>
+  </si>
+  <si>
+    <t>3447</t>
+  </si>
+  <si>
+    <t>3858</t>
+  </si>
+  <si>
+    <t>3293</t>
+  </si>
+  <si>
+    <t>4278</t>
+  </si>
+  <si>
+    <t>1891</t>
+  </si>
+  <si>
+    <t>1897</t>
+  </si>
+  <si>
+    <t>3480</t>
+  </si>
+  <si>
+    <t>1889</t>
+  </si>
+  <si>
+    <t>4277</t>
+  </si>
+  <si>
+    <t>1872</t>
+  </si>
+  <si>
+    <t>3464</t>
+  </si>
+  <si>
+    <t>1878</t>
+  </si>
+  <si>
+    <t>1869</t>
+  </si>
+  <si>
+    <t>1877</t>
+  </si>
+  <si>
+    <t>3479</t>
+  </si>
+  <si>
+    <t>3463</t>
+  </si>
+  <si>
+    <t>3849</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>3856</t>
+  </si>
+  <si>
+    <t>1873</t>
+  </si>
+  <si>
+    <t>1870</t>
+  </si>
+  <si>
+    <t>1874</t>
+  </si>
+  <si>
+    <t>3452</t>
+  </si>
+  <si>
+    <t>1875</t>
+  </si>
+  <si>
+    <t>1876</t>
+  </si>
+  <si>
+    <t>4266</t>
+  </si>
+  <si>
+    <t>3457</t>
+  </si>
+  <si>
+    <t>1890</t>
+  </si>
+  <si>
+    <t>1865</t>
+  </si>
+  <si>
+    <t>3511</t>
+  </si>
+  <si>
+    <t>1680</t>
+  </si>
+  <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>1935</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>2765</t>
+  </si>
+  <si>
+    <t>3227</t>
+  </si>
+  <si>
+    <t>3509</t>
+  </si>
+  <si>
+    <t>3478</t>
+  </si>
+  <si>
+    <t>4449</t>
+  </si>
+  <si>
+    <t>2090</t>
+  </si>
+  <si>
+    <t>3267</t>
+  </si>
+  <si>
+    <t>2256</t>
+  </si>
+  <si>
+    <t>1677</t>
+  </si>
+  <si>
+    <t>3469</t>
+  </si>
+  <si>
+    <t>3441</t>
+  </si>
+  <si>
+    <t>4273</t>
+  </si>
+  <si>
+    <t>3471</t>
+  </si>
+  <si>
+    <t>2094</t>
+  </si>
+  <si>
+    <t>3513</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>2243</t>
+  </si>
+  <si>
+    <t>1666</t>
+  </si>
+  <si>
+    <t>N6YG</t>
+  </si>
+  <si>
+    <t>PGFH</t>
+  </si>
+  <si>
+    <t>PHZT</t>
+  </si>
+  <si>
+    <t>PTGZ</t>
+  </si>
+  <si>
+    <t>NYS0</t>
+  </si>
+  <si>
+    <t>QENU</t>
+  </si>
+  <si>
+    <t>NRDN</t>
+  </si>
+  <si>
+    <t>P9GQ</t>
+  </si>
+  <si>
+    <t>PW0D</t>
+  </si>
+  <si>
+    <t>PBEK</t>
+  </si>
+  <si>
+    <t>NXJF</t>
+  </si>
+  <si>
+    <t>NXGX</t>
+  </si>
+  <si>
+    <t>PSS9</t>
+  </si>
+  <si>
+    <t>PBWQ</t>
+  </si>
+  <si>
+    <t>PDNL</t>
+  </si>
+  <si>
+    <t>NWBA</t>
+  </si>
+  <si>
+    <t>PL1R</t>
+  </si>
+  <si>
+    <t>PYCA</t>
+  </si>
+  <si>
+    <t>PA1W</t>
+  </si>
+  <si>
+    <t>PL1U</t>
+  </si>
+  <si>
+    <t>PSSL</t>
+  </si>
+  <si>
+    <t>NAQH</t>
+  </si>
+  <si>
+    <t>PSQ5</t>
+  </si>
+  <si>
+    <t>PNZA</t>
+  </si>
+  <si>
+    <t>PNNK</t>
+  </si>
+  <si>
+    <t>N64Z</t>
+  </si>
+  <si>
+    <t>PRBJ</t>
+  </si>
+  <si>
+    <t>PZXJ</t>
+  </si>
+  <si>
+    <t>NT2D</t>
+  </si>
+  <si>
+    <t>PN56</t>
+  </si>
+  <si>
+    <t>PQ1F</t>
+  </si>
+  <si>
+    <t>P33P</t>
+  </si>
+  <si>
+    <t>PTAT</t>
+  </si>
+  <si>
+    <t>PHTZ</t>
+  </si>
+  <si>
+    <t>Q2GH</t>
+  </si>
+  <si>
+    <t>PXBL</t>
+  </si>
+  <si>
+    <t>QEX0</t>
+  </si>
+  <si>
+    <t>PQ2P</t>
+  </si>
+  <si>
+    <t>NMPV</t>
+  </si>
+  <si>
+    <t>PQ2F</t>
+  </si>
+  <si>
+    <t>P2PA</t>
+  </si>
+  <si>
+    <t>PCK2</t>
+  </si>
+  <si>
+    <t>PPZU</t>
+  </si>
+  <si>
+    <t>PA02</t>
+  </si>
+  <si>
+    <t>PVZB</t>
+  </si>
+  <si>
+    <t>Q30H</t>
+  </si>
+  <si>
+    <t>Q3JF</t>
+  </si>
+  <si>
+    <t>PTHJ</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -36,7 +592,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -44,17 +600,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -346,58 +953,5257 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23:J24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A&amp;CTABLETS ALLOCATION FORM</oddHeader>
+    <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f t="shared" ref="C2:C34" si="0">CONCATENATE(G2,H2)</f>
+        <v>11V1DP102672</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102774</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101887</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103265</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103262</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102356</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101898</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102031</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102260</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101880</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103447</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103858</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103293</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP104278</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101891</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101897</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103480</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101889</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP104277</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP104278</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101872</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103464</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101878</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101869</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101877</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103479</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103463</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103849</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101900</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103856</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101873</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101870</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101874</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f t="shared" ref="C35:C66" si="1">CONCATENATE(G35,H35)</f>
+        <v>11V1DP103452</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101875</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101876</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP104266</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP103457</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101890</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101865</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP103511</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101680</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101952</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP102022</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101935</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101953</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP102765</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP103227</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP103509</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP103478</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP104449</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP102090</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP103267</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP102256</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101677</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP103469</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP103441</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP104273</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP103471</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP102094</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP103513</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101959</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101954</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP102243</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101666</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.375" right="0.38541666666666669" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A&amp;CTABLETS ALLOCATION FORM</oddHeader>
+    <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f t="shared" ref="C2:C34" si="0">CONCATENATE(G2,H2)</f>
+        <v>HA0JN6YG</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JPGFH</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JPHZT</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JPTGZ</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JNYS0</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JQENU</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JNRDN</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JP9GQ</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JPW0D</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JPBEK</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JNXJF</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JNXGX</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JPSS9</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JPBWQ</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JPDNL</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JNWBA</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JPL1R</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JPYCA</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JPA1W</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JPL1U</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JPSSL</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JNAQH</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JPSQ5</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JPNZA</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JPNNK</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JN64Z</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JPRBJ</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JPZXJ</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JNT2D</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JPN56</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JPQ1F</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JP33P</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HA0JPTAT</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f t="shared" ref="C35:C49" si="1">CONCATENATE(G35,H35)</f>
+        <v>HA0JPHTZ</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>HA0JQ2GH</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>HA0JPXBL</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>HA0JQEX0</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>HA0JPQ2P</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>HA0JNMPV</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>HA0JPQ2F</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>HA0JP2PA</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>HA0JPCK2</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>HA0JPPZU</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>HA0JPA02</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>HA0JPVZB</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>HA0JQ30H</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>HA0JQ3JF</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>HA0JPTHJ</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39583333333333331" right="0.375" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A&amp;CTABLETS ALLOCATION FORM</oddHeader>
+    <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f t="shared" ref="C2:C64" si="0">CONCATENATE(G2,H2)</f>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="3" t="str">
+        <f t="shared" ref="C65:C71" si="1">CONCATENATE(G65,H65)</f>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG27072015</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1:G1">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="HJF0">
+      <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="HJH0">
+      <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.4375" right="0.47916666666666669" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A&amp;CTABLETS ALLOCATION FORM</oddHeader>
+    <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f t="shared" ref="C2:C34" si="0">CONCATENATE(G2,H2)</f>
+        <v>11V1DP101958</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101945</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101678</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103273</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101942</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102027</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101949</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102021</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101932</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103514</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101948</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103276</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102088</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101672</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102534</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101950</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102091</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101662</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102023</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102096</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102087</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101674</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102780</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP104455</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102764</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101921</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP104445</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101930</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102097</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101922</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP104451</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101669</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102763</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f t="shared" ref="C35:C56" si="1">CONCATENATE(G35,H35)</f>
+        <v>11V1DP102249</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP102176</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101941</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101679</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP102259</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP102083</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101946</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP104272</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101899</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP103853</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101862</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP102343</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP103462</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP104265</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP103848</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101867</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101861</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP102358</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP104267</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP104262</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101863</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP104274</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.33333333333333331" right="0.38541666666666669" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A&amp;CTABLETS ALLOCATION FORM</oddHeader>
+    <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.42708333333333331" right="0.41666666666666669" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A&amp;CTABLETS ALLOCATION FORM</oddHeader>
+    <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Tablets Distribution - Mokhotlong.xlsx
+++ b/Tablets Distribution - Mokhotlong.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="All Tablets" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="249">
   <si>
     <t>No.</t>
   </si>
@@ -556,13 +556,223 @@
   </si>
   <si>
     <t>PTHJ</t>
+  </si>
+  <si>
+    <t>02286</t>
+  </si>
+  <si>
+    <t>03530</t>
+  </si>
+  <si>
+    <t>05123</t>
+  </si>
+  <si>
+    <t>05595</t>
+  </si>
+  <si>
+    <t>05852</t>
+  </si>
+  <si>
+    <t>05854</t>
+  </si>
+  <si>
+    <t>06129</t>
+  </si>
+  <si>
+    <t>06394</t>
+  </si>
+  <si>
+    <t>06395</t>
+  </si>
+  <si>
+    <t>06397</t>
+  </si>
+  <si>
+    <t>06857</t>
+  </si>
+  <si>
+    <t>07117</t>
+  </si>
+  <si>
+    <t>07241</t>
+  </si>
+  <si>
+    <t>07277</t>
+  </si>
+  <si>
+    <t>07665</t>
+  </si>
+  <si>
+    <t>07666</t>
+  </si>
+  <si>
+    <t>07668</t>
+  </si>
+  <si>
+    <t>07793</t>
+  </si>
+  <si>
+    <t>07888</t>
+  </si>
+  <si>
+    <t>08149</t>
+  </si>
+  <si>
+    <t>08380</t>
+  </si>
+  <si>
+    <t>08508</t>
+  </si>
+  <si>
+    <t>08732</t>
+  </si>
+  <si>
+    <t>08736</t>
+  </si>
+  <si>
+    <t>08739</t>
+  </si>
+  <si>
+    <t>08970</t>
+  </si>
+  <si>
+    <t>09044</t>
+  </si>
+  <si>
+    <t>09045</t>
+  </si>
+  <si>
+    <t>09170</t>
+  </si>
+  <si>
+    <t>09494</t>
+  </si>
+  <si>
+    <t>09498</t>
+  </si>
+  <si>
+    <t>09499</t>
+  </si>
+  <si>
+    <t>09512</t>
+  </si>
+  <si>
+    <t>10208</t>
+  </si>
+  <si>
+    <t>10349</t>
+  </si>
+  <si>
+    <t>10437</t>
+  </si>
+  <si>
+    <t>10532</t>
+  </si>
+  <si>
+    <t>10564</t>
+  </si>
+  <si>
+    <t>10687</t>
+  </si>
+  <si>
+    <t>10688</t>
+  </si>
+  <si>
+    <t>11176</t>
+  </si>
+  <si>
+    <t>11178</t>
+  </si>
+  <si>
+    <t>11590</t>
+  </si>
+  <si>
+    <t>11665</t>
+  </si>
+  <si>
+    <t>11831</t>
+  </si>
+  <si>
+    <t>11834</t>
+  </si>
+  <si>
+    <t>11887</t>
+  </si>
+  <si>
+    <t>12311</t>
+  </si>
+  <si>
+    <t>12323</t>
+  </si>
+  <si>
+    <t>12324</t>
+  </si>
+  <si>
+    <t>12477</t>
+  </si>
+  <si>
+    <t>12891</t>
+  </si>
+  <si>
+    <t>12893</t>
+  </si>
+  <si>
+    <t>12895</t>
+  </si>
+  <si>
+    <t>12897</t>
+  </si>
+  <si>
+    <t>13023</t>
+  </si>
+  <si>
+    <t>13031</t>
+  </si>
+  <si>
+    <t>13040</t>
+  </si>
+  <si>
+    <t>13631</t>
+  </si>
+  <si>
+    <t>13837</t>
+  </si>
+  <si>
+    <t>13887</t>
+  </si>
+  <si>
+    <t>13889</t>
+  </si>
+  <si>
+    <t>14045</t>
+  </si>
+  <si>
+    <t>14383</t>
+  </si>
+  <si>
+    <t>14554</t>
+  </si>
+  <si>
+    <t>14632</t>
+  </si>
+  <si>
+    <t>14634</t>
+  </si>
+  <si>
+    <t>14713</t>
+  </si>
+  <si>
+    <t>14717</t>
+  </si>
+  <si>
+    <t>14907</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,13 +793,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -619,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -632,11 +854,136 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -953,7 +1300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="J23" sqref="J23:J24"/>
     </sheetView>
   </sheetViews>
@@ -972,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="H1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -981,11 +1328,11 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
     <col min="5" max="5" width="43.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
@@ -2386,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H49"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="H1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2395,10 +2742,10 @@
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
     <col min="5" max="5" width="39.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
@@ -3441,22 +3788,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
@@ -3479,7 +3826,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3">
@@ -3489,8 +3836,8 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f t="shared" ref="C2:C64" si="0">CONCATENATE(G2,H2)</f>
-        <v>M7043GVCJDG27072015</v>
+        <f t="shared" ref="C2:C66" si="0">CONCATENATE(G2,H2)</f>
+        <v>M7043GVCJDG2707201502286</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -3498,6 +3845,9 @@
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H2" s="7" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3">
@@ -3508,7 +3858,7 @@
       </c>
       <c r="C3" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201503530</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3516,6 +3866,9 @@
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H3" s="7" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3">
@@ -3526,7 +3879,7 @@
       </c>
       <c r="C4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201505123</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3534,6 +3887,9 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H4" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3">
@@ -3544,7 +3900,7 @@
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201505595</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -3552,6 +3908,9 @@
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H5" s="7" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3">
@@ -3562,7 +3921,7 @@
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201505852</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -3570,6 +3929,9 @@
       <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H6" s="7" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3">
@@ -3580,7 +3942,7 @@
       </c>
       <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201505854</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -3588,6 +3950,9 @@
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H7" s="7" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3">
@@ -3598,7 +3963,7 @@
       </c>
       <c r="C8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201506129</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -3606,6 +3971,9 @@
       <c r="G8" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H8" s="7" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3">
@@ -3616,7 +3984,7 @@
       </c>
       <c r="C9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201506394</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -3624,6 +3992,9 @@
       <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H9" s="7" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3">
@@ -3634,7 +4005,7 @@
       </c>
       <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201506395</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -3642,6 +4013,9 @@
       <c r="G10" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H10" s="7" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3">
@@ -3652,7 +4026,7 @@
       </c>
       <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201506397</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3660,6 +4034,9 @@
       <c r="G11" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H11" s="7" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3">
@@ -3670,7 +4047,7 @@
       </c>
       <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201506857</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -3678,6 +4055,9 @@
       <c r="G12" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H12" s="7" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3">
@@ -3688,7 +4068,7 @@
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201507117</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -3696,6 +4076,9 @@
       <c r="G13" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H13" s="7" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3">
@@ -3706,7 +4089,7 @@
       </c>
       <c r="C14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201507241</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -3714,6 +4097,9 @@
       <c r="G14" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H14" s="7" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3">
@@ -3724,7 +4110,7 @@
       </c>
       <c r="C15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201507277</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -3732,6 +4118,9 @@
       <c r="G15" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H15" s="7" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3">
@@ -3742,7 +4131,7 @@
       </c>
       <c r="C16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201507665</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -3750,8 +4139,11 @@
       <c r="G16" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3760,7 +4152,7 @@
       </c>
       <c r="C17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201507666</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -3768,8 +4160,11 @@
       <c r="G17" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3778,7 +4173,7 @@
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201507668</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -3786,8 +4181,11 @@
       <c r="G18" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3796,7 +4194,7 @@
       </c>
       <c r="C19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201507793</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -3804,8 +4202,11 @@
       <c r="G19" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3814,7 +4215,7 @@
       </c>
       <c r="C20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201507888</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -3822,8 +4223,11 @@
       <c r="G20" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3832,7 +4236,7 @@
       </c>
       <c r="C21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201508149</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -3840,8 +4244,11 @@
       <c r="G21" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3850,7 +4257,7 @@
       </c>
       <c r="C22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201508380</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -3858,8 +4265,11 @@
       <c r="G22" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -3868,7 +4278,7 @@
       </c>
       <c r="C23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201508508</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -3876,8 +4286,11 @@
       <c r="G23" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3886,7 +4299,7 @@
       </c>
       <c r="C24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201508732</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -3894,8 +4307,11 @@
       <c r="G24" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -3904,7 +4320,7 @@
       </c>
       <c r="C25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201508736</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -3912,8 +4328,11 @@
       <c r="G25" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3922,7 +4341,7 @@
       </c>
       <c r="C26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201508739</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -3930,8 +4349,11 @@
       <c r="G26" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3940,7 +4362,7 @@
       </c>
       <c r="C27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201508970</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3948,8 +4370,11 @@
       <c r="G27" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3958,7 +4383,7 @@
       </c>
       <c r="C28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201509044</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -3966,8 +4391,11 @@
       <c r="G28" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3976,7 +4404,7 @@
       </c>
       <c r="C29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201509045</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -3984,8 +4412,11 @@
       <c r="G29" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3994,7 +4425,7 @@
       </c>
       <c r="C30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201509170</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -4002,8 +4433,11 @@
       <c r="G30" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -4012,7 +4446,7 @@
       </c>
       <c r="C31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201509494</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -4020,8 +4454,11 @@
       <c r="G31" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -4030,7 +4467,7 @@
       </c>
       <c r="C32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201509498</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -4038,8 +4475,11 @@
       <c r="G32" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -4048,7 +4488,7 @@
       </c>
       <c r="C33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201509499</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -4056,8 +4496,11 @@
       <c r="G33" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -4066,7 +4509,7 @@
       </c>
       <c r="C34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201509512</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -4074,35 +4517,42 @@
       <c r="G34" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="3">
+      <c r="H34" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
       <c r="B36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201510208</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -4110,17 +4560,20 @@
       <c r="G36" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201510349</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -4128,17 +4581,20 @@
       <c r="G37" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201510437</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -4146,17 +4602,20 @@
       <c r="G38" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201510532</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -4164,17 +4623,20 @@
       <c r="G39" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201510564</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -4182,17 +4644,20 @@
       <c r="G40" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201510687</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -4200,17 +4665,20 @@
       <c r="G41" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201510688</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -4218,17 +4686,20 @@
       <c r="G42" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201511176</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -4236,17 +4707,20 @@
       <c r="G43" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201511178</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -4254,17 +4728,20 @@
       <c r="G44" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201511590</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4272,17 +4749,20 @@
       <c r="G45" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201511665</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -4290,17 +4770,20 @@
       <c r="G46" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201511831</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -4308,17 +4791,20 @@
       <c r="G47" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201511834</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4326,17 +4812,20 @@
       <c r="G48" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201511887</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -4344,17 +4833,20 @@
       <c r="G49" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201512311</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -4362,17 +4854,20 @@
       <c r="G50" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201512323</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4380,17 +4875,20 @@
       <c r="G51" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201512324</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4398,17 +4896,20 @@
       <c r="G52" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201512477</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4416,17 +4917,20 @@
       <c r="G53" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201512891</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4434,17 +4938,20 @@
       <c r="G54" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201512893</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4452,17 +4959,20 @@
       <c r="G55" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201512895</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4470,17 +4980,20 @@
       <c r="G56" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="3">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201512897</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4488,17 +5001,20 @@
       <c r="G57" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201513023</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4506,17 +5022,20 @@
       <c r="G58" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="3">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201513031</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4524,17 +5043,20 @@
       <c r="G59" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="3">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201513040</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4542,17 +5064,20 @@
       <c r="G60" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201513631</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4560,17 +5085,20 @@
       <c r="G61" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201513837</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4578,17 +5106,20 @@
       <c r="G62" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201513887</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4596,17 +5127,20 @@
       <c r="G63" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="3">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201513889</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4614,17 +5148,20 @@
       <c r="G64" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="3" t="str">
-        <f t="shared" ref="C65:C71" si="1">CONCATENATE(G65,H65)</f>
-        <v>M7043GVCJDG27072015</v>
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG2707201514045</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -4632,17 +5169,20 @@
       <c r="G65" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="3">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>M7043GVCJDG27072015</v>
+        <f t="shared" si="0"/>
+        <v>M7043GVCJDG2707201514383</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4650,17 +5190,20 @@
       <c r="G66" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="3">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>M7043GVCJDG27072015</v>
+        <f t="shared" ref="C67:C73" si="1">CONCATENATE(G67,H67)</f>
+        <v>M7043GVCJDG2707201514554</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4668,17 +5211,20 @@
       <c r="G67" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="3">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201514632</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4686,35 +5232,42 @@
       <c r="G68" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="3">
-        <v>68</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>M7043GVCJDG27072015</v>
-      </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H68" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="18.75">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="3">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201514634</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -4722,17 +5275,20 @@
       <c r="G70" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>M7043GVCJDG27072015</v>
+        <v>M7043GVCJDG2707201514713</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -4740,17 +5296,78 @@
       <c r="G71" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H71" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="3">
+        <v>69</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201514717</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="3">
+        <v>70</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201514907</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.4375" right="0.47916666666666669" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <conditionalFormatting sqref="F35:G35">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="HJF0">
+      <formula>NOT(ISERROR(SEARCH("HJF0",F35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="HJH0">
+      <formula>NOT(ISERROR(SEARCH("HJH0",F35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69:G69">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="HJF0">
+      <formula>NOT(ISERROR(SEARCH("HJF0",F69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="HJH0">
+      <formula>NOT(ISERROR(SEARCH("HJH0",F69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.34375" right="0.38541666666666669" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;A&amp;CTABLETS ALLOCATION FORM</oddHeader>
@@ -4763,7 +5380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A20" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
